--- a/rec2.xlsx
+++ b/rec2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -52,46 +52,22 @@
     <t xml:space="preserve">Adarsh Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve">ashutoshasharsi7@gmail.com</t>
+    <t xml:space="preserve">jitendrakumarbunkar85@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Data Science / ML;Consulting or Product;SDE;</t>
   </si>
   <si>
-    <t xml:space="preserve">jitendrakumarbunkar85@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulting or Product;Data Science / ML;SDE;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.soni@iitg.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRANJAL SONI 230104072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pranjal Soni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashutoshasharsiper@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulting or Product;Data Science / ML;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.bhupathi@iitg.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHUPATHI NIKHIL AGNIHOTRI 230123074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikhil Agnihotri Bhupathi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashutoshasharsimains@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Science / ML;SDE;</t>
+    <t xml:space="preserve">ashutoshsingh@kgpian.iitkgp.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPIT KUMAR 220122004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arpit Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagsworldarpit@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -309,10 +285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,60 +368,37 @@
         <v>220122004</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="1" t="n">
-        <v>9512015500</v>
+        <v>9113714547</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>230104072</v>
+        <v>220122004</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>7396319352</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>230123074</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="ashutoshasharsi7@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="ashutoshasharsiper@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId3" display="ashutoshasharsimains@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="jitendrakumarbunkar85@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="ashutoshsingh@kgpian.iitkgp.ac.in"/>
+    <hyperlink ref="D4" r:id="rId3" display="tagsworldarpit@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
